--- a/featherlook_log.xlsx
+++ b/featherlook_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Featherlook progress log</t>
   </si>
@@ -62,7 +62,10 @@
     <t>parsed into sentences</t>
   </si>
   <si>
-    <t>My next steps: 1) remove file path  only need file name, 2) see if I can do without the little tk window; 3) output window scroll bar; 4) output window copy-able; 5)put into a stand alone .exe</t>
+    <t>My next steps: 1) remove file path  only need file name, 2) see if I can do without the little tk window; 3) output window scroll bar; 4) output window copy-able; 5)put into a stand alone .exe; 6) make a function for parsinng paragraph to sentence</t>
+  </si>
+  <si>
+    <t>completed #4 and #6 in previous next steps. made parsing paragraph to sentence a function and hide little window that is used to bring up .askdialog prompt.</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +452,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43839</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/featherlook_log.xlsx
+++ b/featherlook_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Featherlook progress log</t>
   </si>
@@ -66,6 +66,13 @@
   </si>
   <si>
     <t>completed #4 and #6 in previous next steps. made parsing paragraph to sentence a function and hide little window that is used to bring up .askdialog prompt.</t>
+  </si>
+  <si>
+    <t>Major development: script is set up to run from executable on Windows. 
+Minor:This version includes a popup that shows the absolute path for the temporary file I make to store the search word so I don't have to use .get() all over the place.</t>
+  </si>
+  <si>
+    <t>1)remove popup for path; 2)add scroll; 3) limit size of lists so that users don't select directory with large search and run takes forever - this is just a toy; 4)describe function of app so its obvious for user what this is. Maybe add popup or labels to guide</t>
   </si>
 </sst>
 </file>
@@ -101,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +471,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43842</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/featherlook_log.xlsx
+++ b/featherlook_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Featherlook progress log</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>1)remove popup for path; 2)add scroll; 3) limit size of lists so that users don't select directory with large search and run takes forever - this is just a toy; 4)describe function of app so its obvious for user what this is. Maybe add popup or labels to guide</t>
+  </si>
+  <si>
+    <t>Major development: recreated file search and parser with limits. I kind of know what's going on. Minor development: its not in a separate function</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +488,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43843</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/featherlook_log.xlsx
+++ b/featherlook_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Featherlook progress log</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>1)remove popup for path; 2)add scroll; 3) limit size of lists so that users don't select directory with large search and run takes forever - this is just a toy; 4)describe function of app so its obvious for user what this is. Maybe add popup or labels to guide</t>
-  </si>
-  <si>
-    <t>Major development: recreated file search and parser with limits. I kind of know what's going on. Minor development: its not in a separate function</t>
   </si>
 </sst>
 </file>
@@ -395,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,17 +485,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>43843</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
